--- a/Modulo5/src/out/info_estados/Arizona.xlsx
+++ b/Modulo5/src/out/info_estados/Arizona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="41">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
-  </si>
-  <si>
-    <t>columna_aumentada</t>
+    <t>nuevaColumna</t>
+  </si>
+  <si>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>A</t>
@@ -566,14 +572,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>1934</v>
       </c>
       <c r="M2">
         <v>4001</v>
@@ -610,14 +616,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4451</v>
       </c>
       <c r="M3">
         <v>4001</v>
@@ -654,14 +660,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1089</v>
       </c>
       <c r="M4">
         <v>4001</v>
@@ -698,14 +704,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="M5">
         <v>4001</v>
@@ -742,14 +748,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>939</v>
       </c>
       <c r="M6">
         <v>4001</v>
@@ -786,14 +792,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3266</v>
       </c>
       <c r="M7">
         <v>4003</v>
@@ -830,14 +836,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>4655</v>
       </c>
       <c r="M8">
         <v>4003</v>
@@ -874,14 +880,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>6340</v>
       </c>
       <c r="M9">
         <v>4003</v>
@@ -918,14 +924,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>877</v>
       </c>
       <c r="M10">
         <v>4003</v>
@@ -962,14 +968,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3737</v>
       </c>
       <c r="M11">
         <v>4003</v>
@@ -1006,14 +1012,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>6942</v>
       </c>
       <c r="M12">
         <v>4005</v>
@@ -1050,14 +1056,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>5739</v>
       </c>
       <c r="M13">
         <v>4005</v>
@@ -1094,14 +1100,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3325</v>
       </c>
       <c r="M14">
         <v>4005</v>
@@ -1138,14 +1144,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>743</v>
       </c>
       <c r="M15">
         <v>4005</v>
@@ -1182,14 +1188,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2844</v>
       </c>
       <c r="M16">
         <v>4005</v>
@@ -1226,14 +1232,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1306</v>
       </c>
       <c r="M17">
         <v>4007</v>
@@ -1270,14 +1276,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>2197</v>
       </c>
       <c r="M18">
         <v>4007</v>
@@ -1314,14 +1320,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>39</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3066</v>
       </c>
       <c r="M19">
         <v>4007</v>
@@ -1358,14 +1364,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="M20">
         <v>4007</v>
@@ -1402,14 +1408,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1335</v>
       </c>
       <c r="M21">
         <v>4007</v>
@@ -1446,14 +1452,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>852</v>
       </c>
       <c r="M22">
         <v>4009</v>
@@ -1490,14 +1496,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>938</v>
       </c>
       <c r="M23">
         <v>4009</v>
@@ -1534,14 +1540,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>39</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>1502</v>
       </c>
       <c r="M24">
         <v>4009</v>
@@ -1578,14 +1584,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>39</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="M25">
         <v>4009</v>
@@ -1622,14 +1628,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>39</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>1607</v>
       </c>
       <c r="M26">
         <v>4009</v>
@@ -1666,14 +1672,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="M27">
         <v>4011</v>
@@ -1710,14 +1716,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="M28">
         <v>4011</v>
@@ -1754,14 +1760,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>39</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="M29">
         <v>4011</v>
@@ -1798,14 +1804,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>39</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M30">
         <v>4011</v>
@@ -1842,14 +1848,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>39</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="M31">
         <v>4011</v>
@@ -1886,14 +1892,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="M32">
         <v>4012</v>
@@ -1930,14 +1936,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="M33">
         <v>4012</v>
@@ -1974,14 +1980,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>39</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>941</v>
       </c>
       <c r="M34">
         <v>4012</v>
@@ -2018,14 +2024,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>39</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M35">
         <v>4012</v>
@@ -2062,14 +2068,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>39</v>
       </c>
       <c r="K36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="M36">
         <v>4012</v>
@@ -2106,14 +2112,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>86943</v>
       </c>
       <c r="M37">
         <v>4013</v>
@@ -2150,14 +2156,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>38</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>126989</v>
       </c>
       <c r="M38">
         <v>4013</v>
@@ -2194,14 +2200,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>39</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>144523</v>
       </c>
       <c r="M39">
         <v>4013</v>
@@ -2238,14 +2244,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>33804</v>
       </c>
       <c r="M40">
         <v>4013</v>
@@ -2282,14 +2288,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>72217</v>
       </c>
       <c r="M41">
         <v>4013</v>
@@ -2326,14 +2332,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>38</v>
       </c>
       <c r="K42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2848</v>
       </c>
       <c r="M42">
         <v>4015</v>
@@ -2370,14 +2376,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>38</v>
       </c>
       <c r="K43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>4171</v>
       </c>
       <c r="M43">
         <v>4015</v>
@@ -2414,14 +2420,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>39</v>
       </c>
       <c r="K44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>14155</v>
       </c>
       <c r="M44">
         <v>4015</v>
@@ -2458,14 +2464,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>39</v>
       </c>
       <c r="K45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="M45">
         <v>4015</v>
@@ -2502,14 +2508,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>39</v>
       </c>
       <c r="K46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4745</v>
       </c>
       <c r="M46">
         <v>4015</v>
@@ -2546,14 +2552,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>38</v>
       </c>
       <c r="K47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2622</v>
       </c>
       <c r="M47">
         <v>4017</v>
@@ -2590,14 +2596,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>38</v>
       </c>
       <c r="K48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4416</v>
       </c>
       <c r="M48">
         <v>4017</v>
@@ -2634,14 +2640,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>39</v>
       </c>
       <c r="K49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3559</v>
       </c>
       <c r="M49">
         <v>4017</v>
@@ -2678,14 +2684,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="M50">
         <v>4017</v>
@@ -2722,14 +2728,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>39</v>
       </c>
       <c r="K51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3482</v>
       </c>
       <c r="M51">
         <v>4017</v>
@@ -2766,14 +2772,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>38</v>
       </c>
       <c r="K52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>40229</v>
       </c>
       <c r="M52">
         <v>4019</v>
@@ -2810,14 +2816,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>38</v>
       </c>
       <c r="K53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>56318</v>
       </c>
       <c r="M53">
         <v>4019</v>
@@ -2854,14 +2860,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>36805</v>
       </c>
       <c r="M54">
         <v>4019</v>
@@ -2898,14 +2904,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>39</v>
       </c>
       <c r="K55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>9855</v>
       </c>
       <c r="M55">
         <v>4019</v>
@@ -2942,14 +2948,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>39</v>
       </c>
       <c r="K56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>23138</v>
       </c>
       <c r="M56">
         <v>4019</v>
@@ -2986,14 +2992,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>38</v>
       </c>
       <c r="K57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>5415</v>
       </c>
       <c r="M57">
         <v>4021</v>
@@ -3030,14 +3036,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>38</v>
       </c>
       <c r="K58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>9772</v>
       </c>
       <c r="M58">
         <v>4021</v>
@@ -3074,14 +3080,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>12183</v>
       </c>
       <c r="M59">
         <v>4021</v>
@@ -3118,14 +3124,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>39</v>
       </c>
       <c r="K60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>1568</v>
       </c>
       <c r="M60">
         <v>4021</v>
@@ -3162,14 +3168,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>39</v>
       </c>
       <c r="K61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4080</v>
       </c>
       <c r="M61">
         <v>4021</v>
@@ -3206,14 +3212,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>38</v>
       </c>
       <c r="K62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>1206</v>
       </c>
       <c r="M62">
         <v>4023</v>
@@ -3250,14 +3256,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>38</v>
       </c>
       <c r="K63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>2497</v>
       </c>
       <c r="M63">
         <v>4023</v>
@@ -3294,14 +3300,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>39</v>
       </c>
       <c r="K64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>763</v>
       </c>
       <c r="M64">
         <v>4023</v>
@@ -3338,14 +3344,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>39</v>
       </c>
       <c r="K65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="M65">
         <v>4023</v>
@@ -3382,14 +3388,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>39</v>
       </c>
       <c r="K66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>452</v>
       </c>
       <c r="M66">
         <v>4023</v>
@@ -3426,14 +3432,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>38</v>
       </c>
       <c r="K67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>7109</v>
       </c>
       <c r="M67">
         <v>4025</v>
@@ -3470,14 +3476,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>38</v>
       </c>
       <c r="K68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>8402</v>
       </c>
       <c r="M68">
         <v>4025</v>
@@ -3514,14 +3520,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>39</v>
       </c>
       <c r="K69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>17006</v>
       </c>
       <c r="M69">
         <v>4025</v>
@@ -3558,14 +3564,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>3260</v>
       </c>
       <c r="M70">
         <v>4025</v>
@@ -3602,14 +3608,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>39</v>
       </c>
       <c r="K71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>10548</v>
       </c>
       <c r="M71">
         <v>4025</v>
@@ -3646,14 +3652,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>38</v>
       </c>
       <c r="K72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>2157</v>
       </c>
       <c r="M72">
         <v>4027</v>
@@ -3690,14 +3696,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>38</v>
       </c>
       <c r="K73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>4359</v>
       </c>
       <c r="M73">
         <v>4027</v>
@@ -3734,14 +3740,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>39</v>
       </c>
       <c r="K74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4391</v>
       </c>
       <c r="M74">
         <v>4027</v>
@@ -3778,14 +3784,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>39</v>
       </c>
       <c r="K75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>523</v>
       </c>
       <c r="M75">
         <v>4027</v>
@@ -3822,14 +3828,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>39</v>
       </c>
       <c r="K76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>2557</v>
       </c>
       <c r="M76">
         <v>4027</v>
